--- a/yewu.xlsx
+++ b/yewu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\11762\pythonProject\知识图谱\联通问答\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\neo4j_chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCBE83F-0F1B-473B-8BA0-688F134A2D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91BB45-E808-44B6-B62B-F0CF53093F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1550免费分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>contact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>套餐不仅包含免费分钟，还有一条宽带可以使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +103,14 @@
   </si>
   <si>
     <t>话费业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐不仅包含1550免费分钟，还有一条宽带可以使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -455,12 +455,12 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>255</v>
@@ -469,12 +469,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>500</v>
@@ -483,12 +483,12 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -497,12 +497,12 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>231</v>
@@ -511,35 +511,35 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
